--- a/static/export1.xlsx
+++ b/static/export1.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A45"/>
+  <dimension ref="A1:A40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,313 +462,278 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-7474-50</t>
+          <t>NETMEDS-4307-50</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-6263-50</t>
+          <t>NETMEDS-0554-50</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-4004-50</t>
+          <t>NETMEDS-4423-50</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-9249-50</t>
+          <t>NETMEDS-0873-50</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-8102-50</t>
+          <t>NETMEDS-4221-50</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-4307-50</t>
+          <t>NETMEDS-8220-50</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-0554-50</t>
+          <t>NETMEDS-1329-50</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-4423-50</t>
+          <t>NETMEDS-4787-50</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-0873-50</t>
+          <t>NETMEDS-5601-50</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-4221-50</t>
+          <t>NETMEDS-3047-50</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-8220-50</t>
+          <t>NETMEDS-5293-50</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-1329-50</t>
+          <t>NETMEDS-5448-50</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-4787-50</t>
+          <t>NETMEDS-7211-50</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-5601-50</t>
+          <t>NETMEDS-4564-50</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-3047-50</t>
+          <t>NETMEDS-8846-50</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-5293-50</t>
+          <t>NETMEDS-0720-50</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-5448-50</t>
+          <t>NETMEDS-1110-50</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-7211-50</t>
+          <t>NETMEDS-8458-50</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-4564-50</t>
+          <t>NETMEDS-3861-50</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-8846-50</t>
+          <t>NETMEDS-4693-50</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-0720-50</t>
+          <t>NETMEDS-4556-50</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-1110-50</t>
+          <t>NETMEDS-3922-50</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-8458-50</t>
+          <t>NETMEDS-2596-50</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-3861-50</t>
+          <t>NETMEDS-8700-50</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-4693-50</t>
+          <t>NETMEDS-7567-50</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-4556-50</t>
+          <t>NETMEDS-2044-50</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-3922-50</t>
+          <t>NETMEDS-1008-50</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-2596-50</t>
+          <t>NETMEDS-8386-50</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-8700-50</t>
+          <t>NETMEDS-6988-50</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-7567-50</t>
+          <t>NETMEDS-4107-50</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-2044-50</t>
+          <t>NETMEDS-7796-50</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-1008-50</t>
+          <t>NETMEDS-7556-50</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-8386-50</t>
+          <t>NETMEDS-2608-50</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-6988-50</t>
+          <t>NETMEDS-6599-50</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-4107-50</t>
+          <t>NETMEDS-1923-50</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-7796-50</t>
+          <t>NETMEDS-6291-50</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-7556-50</t>
+          <t>NETMEDS-2647-50</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-2608-50</t>
+          <t>NETMEDS-3734-50</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-6599-50</t>
+          <t>NETMEDS-9677-50</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>NETMEDS-1923-50</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>NETMEDS-6291-50</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>NETMEDS-2647-50</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>NETMEDS-3734-50</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>NETMEDS-9677-50</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>NETMEDS-0818-50</t>
         </is>

--- a/static/export1.xlsx
+++ b/static/export1.xlsx
@@ -448,7 +448,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A40"/>
+  <dimension ref="A1:A38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -462,278 +462,264 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-4307-50</t>
+          <t>NETMEDS-4423-50</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-0554-50</t>
+          <t>NETMEDS-0873-50</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-4423-50</t>
+          <t>NETMEDS-4221-50</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-0873-50</t>
+          <t>NETMEDS-8220-50</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-4221-50</t>
+          <t>NETMEDS-1329-50</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-8220-50</t>
+          <t>NETMEDS-4787-50</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-1329-50</t>
+          <t>NETMEDS-5601-50</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-4787-50</t>
+          <t>NETMEDS-3047-50</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-5601-50</t>
+          <t>NETMEDS-5293-50</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-3047-50</t>
+          <t>NETMEDS-5448-50</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-5293-50</t>
+          <t>NETMEDS-7211-50</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-5448-50</t>
+          <t>NETMEDS-4564-50</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-7211-50</t>
+          <t>NETMEDS-8846-50</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-4564-50</t>
+          <t>NETMEDS-0720-50</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-8846-50</t>
+          <t>NETMEDS-1110-50</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-0720-50</t>
+          <t>NETMEDS-8458-50</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-1110-50</t>
+          <t>NETMEDS-3861-50</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-8458-50</t>
+          <t>NETMEDS-4693-50</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-3861-50</t>
+          <t>NETMEDS-4556-50</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-4693-50</t>
+          <t>NETMEDS-3922-50</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-4556-50</t>
+          <t>NETMEDS-2596-50</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-3922-50</t>
+          <t>NETMEDS-8700-50</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-2596-50</t>
+          <t>NETMEDS-7567-50</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-8700-50</t>
+          <t>NETMEDS-2044-50</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-7567-50</t>
+          <t>NETMEDS-1008-50</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-2044-50</t>
+          <t>NETMEDS-8386-50</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-1008-50</t>
+          <t>NETMEDS-6988-50</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-8386-50</t>
+          <t>NETMEDS-4107-50</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-6988-50</t>
+          <t>NETMEDS-7796-50</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-4107-50</t>
+          <t>NETMEDS-7556-50</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-7796-50</t>
+          <t>NETMEDS-2608-50</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-7556-50</t>
+          <t>NETMEDS-6599-50</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-2608-50</t>
+          <t>NETMEDS-1923-50</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-6599-50</t>
+          <t>NETMEDS-6291-50</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-1923-50</t>
+          <t>NETMEDS-2647-50</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-6291-50</t>
+          <t>NETMEDS-3734-50</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>NETMEDS-2647-50</t>
+          <t>NETMEDS-9677-50</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>NETMEDS-3734-50</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>NETMEDS-9677-50</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>NETMEDS-0818-50</t>
         </is>
